--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3844529.809881203</v>
+        <v>3842278.991495308</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>390.7529822392023</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>188.7343800317294</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.05665370612839</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.66385641544537</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>83.40252578334311</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>325.2557485598865</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>70.82764119510665</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>163.6898441249707</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>70.82764119510597</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492329</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796244</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.2145510335545</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,7 +2296,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492315</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>205.3712164508584</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>131.5730391207947</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>118.2984856025741</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>90.41948680756515</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>171.9731989154902</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
-        <v>51.19843204833994</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100151</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121074</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S34" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T34" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U34" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W34" t="n">
         <v>258.1266653077544</v>
@@ -3253,7 +3253,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.1883203232582</v>
+        <v>5.10339492017217</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531007</v>
+        <v>35.527821970616</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>51.19843204833995</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121072</v>
+        <v>60.53581964121068</v>
       </c>
       <c r="S37" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T37" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U37" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V37" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W37" t="n">
         <v>258.1266653077544</v>
@@ -3490,7 +3490,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>96.66271324503479</v>
+        <v>33.34631159897281</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121074</v>
+        <v>60.53581964121068</v>
       </c>
       <c r="S40" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T40" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U40" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V40" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W40" t="n">
         <v>258.1266653077544</v>
@@ -3727,7 +3727,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C43" t="n">
-        <v>51.19843204833988</v>
+        <v>134.8859069379096</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100151</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121074</v>
+        <v>60.53581964121068</v>
       </c>
       <c r="S43" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U43" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W43" t="n">
         <v>258.1266653077544</v>
@@ -3964,7 +3964,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C46" t="n">
         <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>96.6627132450358</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>60.53581964121068</v>
       </c>
       <c r="S46" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T46" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U46" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W46" t="n">
         <v>258.1266653077544</v>
@@ -4201,7 +4201,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.1883203232582</v>
+        <v>119.2805664340135</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>929.3036598490722</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4492,40 +4492,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>913.7382812066351</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2275.302125952048</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2021.540340590139</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1690.477453246569</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1690.477453246569</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>1690.477453246569</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1300.338121270757</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1053.350203651865</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>684.3876867114529</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>684.3876867114529</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>298.5994341132087</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>291.6539333640052</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1053.350203651865</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>888.4135721382778</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1339.447785386687</v>
+        <v>1849.525439218844</v>
       </c>
       <c r="M11" t="n">
-        <v>2317.998088216515</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N11" t="n">
-        <v>3297.750360443162</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O11" t="n">
-        <v>3800.7228313225</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5118,19 +5118,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,13 +5157,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>481.6968904858351</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C13" t="n">
-        <v>481.6968904858351</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>481.6968904858351</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5197,22 +5197,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953301</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927028</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208131</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838524</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858351</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>481.6968904858351</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,46 +5276,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,28 +5367,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>481.6968904858344</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>481.6968904858344</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>481.6968904858344</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5437,10 +5437,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5473,13 +5473,13 @@
         <v>999.1036114208124</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838517</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858344</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y16" t="n">
-        <v>481.6968904858344</v>
+        <v>260.9043113423044</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,25 +5516,25 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1472.533259768727</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2006.065164440652</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,16 +5543,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5607,13 +5607,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,34 +5689,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413794</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433621</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998319</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,52 +5750,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1002.806306216376</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
-        <v>1453.840519464784</v>
+        <v>1797.11783460013</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902953</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839439</v>
+        <v>425.7583423057188</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839439</v>
+        <v>256.8221593778119</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839439</v>
+        <v>256.8221593778119</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>108.9090657954189</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>108.909065795419</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>108.909065795419</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5926,34 +5926,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>874.5404723472662</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>646.5509214492489</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>425.7583423057188</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,67 +5972,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622688</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294612</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353394</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>412.4103109586944</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
         <v>95.56103444839442</v>
@@ -6181,16 +6181,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783401</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433621</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998319</v>
+        <v>412.4103109586944</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6212,10 +6212,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,22 +6224,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3175.513123659584</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6254,22 +6254,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6306,25 +6306,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,7 +6333,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447819</v>
@@ -6342,7 +6342,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>673.3827746590077</v>
+        <v>540.4807149410337</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410336</v>
+        <v>540.4807149410337</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>390.364075528698</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>242.4509819463049</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6385,10 +6385,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6400,34 +6400,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.576850674229</v>
+        <v>1555.333704888477</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1266.230838014121</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1011.546349808234</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570251</v>
+        <v>722.1291797712735</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590077</v>
+        <v>722.1291797712735</v>
       </c>
       <c r="Y28" t="n">
-        <v>673.3827746590077</v>
+        <v>722.1291797712735</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,22 +6461,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6555,25 +6555,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>481.6968904858344</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>481.6968904858344</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6637,34 +6637,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208125</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838518</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858344</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858344</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
@@ -6701,19 +6701,19 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>919.9473678912377</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1784.466183544592</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6728,22 +6728,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6795,34 +6795,34 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.4728289383108</v>
+        <v>659.4272990424387</v>
       </c>
       <c r="C34" t="n">
-        <v>472.4728289383108</v>
+        <v>519.1742807901244</v>
       </c>
       <c r="D34" t="n">
-        <v>472.4728289383108</v>
+        <v>519.1742807901244</v>
       </c>
       <c r="E34" t="n">
-        <v>472.4728289383108</v>
+        <v>399.9443518833239</v>
       </c>
       <c r="F34" t="n">
-        <v>420.7572410106947</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="G34" t="n">
-        <v>281.7375690610062</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="H34" t="n">
         <v>164.2035469544565</v>
@@ -6856,10 +6856,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413027</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L34" t="n">
         <v>745.567757388347</v>
@@ -6871,7 +6871,7 @@
         <v>1487.357919090857</v>
       </c>
       <c r="O34" t="n">
-        <v>1814.799887709818</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P34" t="n">
         <v>2075.519757842026</v>
@@ -6889,19 +6889,19 @@
         <v>1764.008960873747</v>
       </c>
       <c r="U34" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
-        <v>1277.587935144688</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.85392978332</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>817.5475435608955</v>
+        <v>817.5475435608965</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.438129092958</v>
+        <v>812.3925991970858</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,13 +7014,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>472.4728289383108</v>
+        <v>589.5514402337508</v>
       </c>
       <c r="C37" t="n">
-        <v>472.4728289383108</v>
+        <v>589.5514402337508</v>
       </c>
       <c r="D37" t="n">
-        <v>472.4728289383108</v>
+        <v>589.5514402337508</v>
       </c>
       <c r="E37" t="n">
-        <v>420.7572410106947</v>
+        <v>470.3215113269503</v>
       </c>
       <c r="F37" t="n">
-        <v>420.7572410106947</v>
+        <v>352.1147285046325</v>
       </c>
       <c r="G37" t="n">
-        <v>281.7375690610062</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H37" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7099,7 +7099,7 @@
         <v>400.8955892413028</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883469</v>
+        <v>745.5677573883471</v>
       </c>
       <c r="M37" t="n">
         <v>1117.837172686444</v>
@@ -7111,34 +7111,34 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P37" t="n">
-        <v>2075.519757842026</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R37" t="n">
         <v>2120.09513112621</v>
       </c>
       <c r="S37" t="n">
-        <v>1957.092411628628</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U37" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1277.587935144688</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W37" t="n">
-        <v>1016.85392978332</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>817.5475435608955</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y37" t="n">
-        <v>625.438129092958</v>
+        <v>625.4381290929589</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7160,13 +7160,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7175,16 +7175,16 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7205,19 +7205,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7254,10 +7254,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>472.4728289383111</v>
+        <v>625.4381290929589</v>
       </c>
       <c r="C40" t="n">
-        <v>332.2198106859967</v>
+        <v>625.4381290929589</v>
       </c>
       <c r="D40" t="n">
-        <v>332.2198106859967</v>
+        <v>504.0046543562158</v>
       </c>
       <c r="E40" t="n">
-        <v>234.5807063980829</v>
+        <v>470.3215113269503</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5807063980829</v>
+        <v>352.1147285046325</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>400.8955892413028</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5677573883469</v>
+        <v>745.5677573883473</v>
       </c>
       <c r="M40" t="n">
         <v>1117.837172686444</v>
@@ -7345,10 +7345,10 @@
         <v>1487.357919090857</v>
       </c>
       <c r="O40" t="n">
-        <v>1814.799887709818</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P40" t="n">
-        <v>2075.519757842026</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q40" t="n">
         <v>2181.242423693089</v>
@@ -7357,13 +7357,13 @@
         <v>2120.09513112621</v>
       </c>
       <c r="S40" t="n">
-        <v>1957.092411628628</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T40" t="n">
         <v>1764.008960873747</v>
       </c>
       <c r="U40" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V40" t="n">
         <v>1277.587935144689</v>
@@ -7372,10 +7372,10 @@
         <v>1016.853929783321</v>
       </c>
       <c r="X40" t="n">
-        <v>817.5475435608957</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y40" t="n">
-        <v>625.4381290929582</v>
+        <v>625.4381290929589</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7397,7 +7397,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7412,16 +7412,16 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7442,19 +7442,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7500,10 +7500,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>472.4728289383108</v>
+        <v>472.4728289383115</v>
       </c>
       <c r="C43" t="n">
-        <v>420.7572410106948</v>
+        <v>336.2244380919381</v>
       </c>
       <c r="D43" t="n">
-        <v>420.7572410106948</v>
+        <v>214.7909633551949</v>
       </c>
       <c r="E43" t="n">
-        <v>420.7572410106948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>420.7572410106948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>281.7375690610062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>164.2035469544566</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
-        <v>400.8955892413027</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L43" t="n">
-        <v>745.567757388347</v>
+        <v>745.5677573883473</v>
       </c>
       <c r="M43" t="n">
         <v>1117.837172686444</v>
@@ -7594,25 +7594,25 @@
         <v>2120.09513112621</v>
       </c>
       <c r="S43" t="n">
-        <v>1957.092411628628</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
         <v>1764.008960873747</v>
       </c>
       <c r="U43" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V43" t="n">
         <v>1277.587935144689</v>
       </c>
       <c r="W43" t="n">
-        <v>1016.85392978332</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X43" t="n">
-        <v>817.5475435608955</v>
+        <v>817.5475435608961</v>
       </c>
       <c r="Y43" t="n">
-        <v>625.438129092958</v>
+        <v>625.4381290929585</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1070.83252492416</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.86673817257</v>
+        <v>1729.091615892343</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844494</v>
+        <v>2707.641918722172</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320232</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>472.4728289383123</v>
+        <v>544.0968227658317</v>
       </c>
       <c r="C46" t="n">
-        <v>332.2198106859979</v>
+        <v>403.8438045135174</v>
       </c>
       <c r="D46" t="n">
-        <v>332.2198106859979</v>
+        <v>282.4103297767742</v>
       </c>
       <c r="E46" t="n">
-        <v>332.2198106859979</v>
+        <v>282.4103297767742</v>
       </c>
       <c r="F46" t="n">
-        <v>332.2198106859979</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="G46" t="n">
-        <v>193.2001387363094</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,16 +7807,16 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K46" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M46" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O46" t="n">
         <v>1814.799887709819</v>
@@ -7825,31 +7825,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R46" t="n">
-        <v>2120.095131126211</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S46" t="n">
-        <v>1957.092411628629</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.008960873748</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U46" t="n">
         <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.58793514469</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W46" t="n">
         <v>1016.853929783322</v>
       </c>
       <c r="X46" t="n">
-        <v>817.5475435608971</v>
+        <v>817.5475435608968</v>
       </c>
       <c r="Y46" t="n">
-        <v>625.4381290929595</v>
+        <v>697.0621229204788</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>103.7862464855133</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>294.8707872801647</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>285.0508825989999</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>238.2160185885855</v>
       </c>
       <c r="M17" t="n">
-        <v>344.7025836476846</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>219.3344627260167</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>411.0304280899009</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476838</v>
+        <v>64.28566532692577</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>123.4719563470494</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>272.8828616575881</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>135.6385654278975</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>344.7025836476846</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>60.01894884692092</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,19 +10823,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>219.3344627260169</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>288.0478149561043</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>288.0478149561016</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>342.3170758598135</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>92.4891296437041</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>75.60632145146252</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696656</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>75.6063214514632</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>16.14213605696659</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>131.5404638807663</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696643</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270141</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>13.21343690123643</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>35.67378197783313</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>101.2504636735951</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>58.19598621064721</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>46.61145443660457</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>65.8262829457547</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>185.0849254030859</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>115.9078251824846</v>
       </c>
       <c r="C37" t="n">
         <v>138.8504880697912</v>
@@ -25318,10 +25318,10 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>66.83919756939261</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>21.37491637269777</v>
+        <v>84.69131801875969</v>
       </c>
       <c r="F40" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100151</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>87.65205602145134</v>
+        <v>3.964581131881545</v>
       </c>
       <c r="D43" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>19.69596864044843</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>70.90775388924459</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652686.437408683</v>
+        <v>652686.4374086829</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652686.437408683</v>
+        <v>652686.4374086829</v>
       </c>
     </row>
     <row r="12">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
         <v>754455.3950852677</v>
       </c>
       <c r="F2" t="n">
-        <v>754455.395085268</v>
+        <v>754455.3950852682</v>
       </c>
       <c r="G2" t="n">
-        <v>754455.395085268</v>
+        <v>754455.3950852683</v>
       </c>
       <c r="H2" t="n">
-        <v>754455.3950852683</v>
+        <v>754455.3950852681</v>
       </c>
       <c r="I2" t="n">
-        <v>754455.3950852683</v>
+        <v>754455.3950852681</v>
       </c>
       <c r="J2" t="n">
-        <v>754455.395085268</v>
+        <v>754455.3950852681</v>
       </c>
       <c r="K2" t="n">
-        <v>754455.3950852682</v>
+        <v>754455.3950852677</v>
       </c>
       <c r="L2" t="n">
-        <v>769890.7966448726</v>
+        <v>769890.7966448724</v>
       </c>
       <c r="M2" t="n">
         <v>769890.7966448725</v>
@@ -26350,7 +26350,7 @@
         <v>769890.7966448728</v>
       </c>
       <c r="O2" t="n">
-        <v>769890.7966448726</v>
+        <v>769890.7966448724</v>
       </c>
       <c r="P2" t="n">
         <v>769890.7966448724</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934069</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306928</v>
+        <v>22717.06642306933</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.540033842204138e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
+        <v>27492.30103190632</v>
+      </c>
+      <c r="M4" t="n">
         <v>27492.3010319063</v>
       </c>
-      <c r="M4" t="n">
-        <v>27492.30103190626</v>
-      </c>
       <c r="N4" t="n">
-        <v>27492.30103190628</v>
+        <v>27492.30103190631</v>
       </c>
       <c r="O4" t="n">
         <v>27492.3010319063</v>
       </c>
       <c r="P4" t="n">
-        <v>27492.30103190627</v>
+        <v>27492.30103190632</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26491,7 +26491,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26509,7 +26509,7 @@
         <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76185.9627640128</v>
+        <v>-76185.96276401301</v>
       </c>
       <c r="C6" t="n">
-        <v>513781.9164505317</v>
+        <v>513781.9164505316</v>
       </c>
       <c r="D6" t="n">
-        <v>513781.9164505316</v>
+        <v>513781.9164505314</v>
       </c>
       <c r="E6" t="n">
-        <v>-87454.02948104274</v>
+        <v>-87521.22497126822</v>
       </c>
       <c r="F6" t="n">
-        <v>639923.3845123646</v>
+        <v>639856.1890221388</v>
       </c>
       <c r="G6" t="n">
-        <v>639923.3845123644</v>
+        <v>639856.1890221389</v>
       </c>
       <c r="H6" t="n">
-        <v>639923.3845123647</v>
+        <v>639856.1890221387</v>
       </c>
       <c r="I6" t="n">
-        <v>639923.3845123647</v>
+        <v>639856.1890221387</v>
       </c>
       <c r="J6" t="n">
-        <v>463500.1653197712</v>
+        <v>463432.9698295457</v>
       </c>
       <c r="K6" t="n">
-        <v>639923.3845123646</v>
+        <v>639856.1890221382</v>
       </c>
       <c r="L6" t="n">
-        <v>620910.6596147821</v>
+        <v>620884.0836023445</v>
       </c>
       <c r="M6" t="n">
-        <v>513985.4111989064</v>
+        <v>513958.8351864693</v>
       </c>
       <c r="N6" t="n">
-        <v>643627.7260378515</v>
+        <v>643601.1500254142</v>
       </c>
       <c r="O6" t="n">
-        <v>643627.7260378514</v>
+        <v>643601.1500254138</v>
       </c>
       <c r="P6" t="n">
-        <v>643627.7260378507</v>
+        <v>643601.1500254138</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,16 +26981,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>23.03118778159273</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>27.71394032592835</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.0888852438905</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.9207969366494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.3816442374519</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>23.98522015752656</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689005</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-2.630296895111613e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-3.765876499528531e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32327,7 +32327,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P18" t="n">
         <v>447.6103584002926</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32567,7 +32567,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987486</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33515,7 +33515,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34220,13 +34220,13 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>440.977533040914</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>750.4609016724969</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>837.3527180119112</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>693.8061329809175</v>
       </c>
       <c r="M17" t="n">
-        <v>883.6236994779111</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>556.5257492814171</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>866.6205424822328</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36215,7 +36215,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127271</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400157</v>
+        <v>519.8757797192577</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>631.5249572352684</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>671.6448478769599</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36990,7 +36990,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37069,22 +37069,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>472.8298519832979</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>883.6236994779111</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636241</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.9747496419028</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K34" t="n">
-        <v>234.4439925731561</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L34" t="n">
         <v>348.1537051990347</v>
       </c>
       <c r="M34" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O34" t="n">
-        <v>330.7494632514763</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
         <v>263.353404173947</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.7905715667302</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>568.0719497351399</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
@@ -37470,10 +37470,10 @@
         <v>348.1537051990347</v>
       </c>
       <c r="M37" t="n">
-        <v>376.0297124223205</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O37" t="n">
         <v>330.7494632514764</v>
@@ -37543,19 +37543,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>771.6362981389282</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908542</v>
@@ -37622,7 +37622,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.9747496419028</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K40" t="n">
-        <v>234.4439925731561</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L40" t="n">
         <v>348.1537051990347</v>
@@ -37710,16 +37710,16 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O40" t="n">
-        <v>330.7494632514763</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P40" t="n">
         <v>263.353404173947</v>
       </c>
       <c r="Q40" t="n">
-        <v>106.7905715667302</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
@@ -37789,10 +37789,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>840.3496503690155</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908542</v>
@@ -37868,13 +37868,13 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.9747496419028</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K43" t="n">
-        <v>234.4439925731561</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
         <v>348.1537051990347</v>
@@ -37947,16 +37947,16 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O43" t="n">
-        <v>330.7494632514763</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P43" t="n">
         <v>263.353404173947</v>
       </c>
       <c r="Q43" t="n">
-        <v>106.7905715667302</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>625.2391015115023</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>797.9071902521455</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597567</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190289</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223206</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
-        <v>263.3534041739471</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q46" t="n">
         <v>106.7905715667303</v>
